--- a/MIL.RTI.CourseDocumentGenerator/MIL.RTI.CourseDocumentGenerator/Files/13M10/Master_Student_Progress_Worksheet_13M10_Phase1.xlsx
+++ b/MIL.RTI.CourseDocumentGenerator/MIL.RTI.CourseDocumentGenerator/Files/13M10/Master_Student_Progress_Worksheet_13M10_Phase1.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\github\CourseDocumentGenerator\MIL.RTI.CourseDocumentGenerator\MIL.RTI.CourseDocumentGenerator\Files\13M30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\github\CourseDocumentGenerator\MIL.RTI.CourseDocumentGenerator\MIL.RTI.CourseDocumentGenerator\Files\13M10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD1235-24A6-46A1-999A-CE6E93417509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B612478D-2040-4FE7-89CB-E5A2B3C49AF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Phase1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Student Name </t>
   </si>
@@ -79,6 +79,72 @@
       </rPr>
       <t>.  Change N to G when a SM successfully completes the task.</t>
     </r>
+  </si>
+  <si>
+    <t>GS61PR / Position and Roles of an MLRS/HIMARS Crewmember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS61DD / Operate an M993A1 Carrier Vehicle During a Fire Mission </t>
+  </si>
+  <si>
+    <t>GS61EM / Operate an IETM</t>
+  </si>
+  <si>
+    <t>GS61DB / Perform Gunner's Duties (M270A1-M142)</t>
+  </si>
+  <si>
+    <t>GS61SG / Perform Tactical Communications Using SINCGAARS</t>
+  </si>
+  <si>
+    <t>GS6100 / Conduct SINCGAARS Exam and Review</t>
+  </si>
+  <si>
+    <t>GS61HR / Operate AN/PRC-150 ( C ) HARRIS Radio</t>
+  </si>
+  <si>
+    <t>GS61A1 / Introduction to the M270A1 MLRS - M142 HIMARS</t>
+  </si>
+  <si>
+    <t>GS61MT / Perform PMCS on M993-M142 Vehicles During Fire Mission</t>
+  </si>
+  <si>
+    <t>GS61RL / Perform Drivers Duties during and MLRS-HIMARS Reload</t>
+  </si>
+  <si>
+    <t>GS6120 / MLRS-HIMARS Launcher Performance Exam and Criteque</t>
+  </si>
+  <si>
+    <t>GS61HM / Perform PMCS on an M985A4 HEMTT and M989A1 HEMAT</t>
+  </si>
+  <si>
+    <t>GH6121 / M142 (HIMARS) Maintenance Hands on Performance Examination</t>
+  </si>
+  <si>
+    <t>GH61RS / Perform M142 / M985A4 Ammo Resupply Prcedures</t>
+  </si>
+  <si>
+    <t>GH6111 / Conduct Hands on Performance Exam/Critique on M1084A1P2 RSV Ammunition Resupply Vehicle</t>
+  </si>
+  <si>
+    <t>GH61DD / Operate and XM1140 Carrier Vehicle during a Fire Mission</t>
+  </si>
+  <si>
+    <t>GS111 / Conduct and M985A4 HEMTT Hands on Performance Examination and Critique</t>
+  </si>
+  <si>
+    <t>GS61SX / Conduct FTX</t>
+  </si>
+  <si>
+    <t>GS61IP / Conduct In-Processing</t>
+  </si>
+  <si>
+    <t>GS61PT / Conduct Physical Readiness Training</t>
+  </si>
+  <si>
+    <t>GS61FR / Conducte FTX Recovery</t>
+  </si>
+  <si>
+    <t>GS61OP / Conducte Out-Processing</t>
   </si>
 </sst>
 </file>
@@ -678,7 +744,7 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -691,28 +757,72 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="B1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
